--- a/Output from Naive Bayes Predictions.xlsx
+++ b/Output from Naive Bayes Predictions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danjohnson/Dropbox/Coding_Tools/R_Environment/R_Projects/ta_comments_FLC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{55D54672-6542-1948-9FFF-75B1F8F5C3B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252E105C-DBF7-8A49-BC41-EB29AADCF128}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29180" yWindow="3480" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="680" yWindow="460" windowWidth="25600" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OutputData" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4683" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4673" uniqueCount="7">
   <si>
     <t>comments_test_labels</t>
   </si>
@@ -49,32 +49,11 @@
   <si>
     <t>Compare</t>
   </si>
-  <si>
-    <t>Correct</t>
-  </si>
-  <si>
-    <t>1-grams</t>
-  </si>
-  <si>
-    <t>2-grams</t>
-  </si>
-  <si>
-    <t>3-grams</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Locus</t>
-  </si>
-  <si>
-    <t>Pairwise</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -908,11 +887,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2336"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D2336"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A853" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -921,7 +900,7 @@
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -932,7 +911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -947,7 +926,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -961,19 +940,8 @@
         <f t="shared" ref="D3:D66" si="0">IF(B3=C3,"yes","no")</f>
         <v>yes</v>
       </c>
-      <c r="F3">
-        <f>COUNTIF(D2:D2336,"yes")</f>
-        <v>1865</v>
-      </c>
-      <c r="G3">
-        <f>F3/F5</f>
-        <v>0.79871520342612423</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -987,12 +955,8 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="F4">
-        <f>COUNTIF(D2:D2336,"no")</f>
-        <v>470</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1006,12 +970,8 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="F5">
-        <f>SUM(F3:F4)</f>
-        <v>2335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1026,7 +986,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1041,7 +1001,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1056,7 +1016,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1070,14 +1030,8 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1091,26 +1045,8 @@
         <f t="shared" si="0"/>
         <v>yes</v>
       </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1125,7 +1061,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1139,11 +1075,8 @@
         <f t="shared" si="0"/>
         <v>no</v>
       </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1158,7 +1091,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1173,7 +1106,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1188,7 +1121,7 @@
         <v>yes</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
